--- a/data_year/zb/卫生/卫生总费用.xlsx
+++ b/data_year/zb/卫生/卫生总费用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,565 +473,309 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2705.17</v>
+        <v>7051.29</v>
       </c>
       <c r="C2" t="n">
-        <v>361.88</v>
+        <v>1490.06</v>
       </c>
       <c r="D2" t="n">
-        <v>214.9277102299</v>
+        <v>666.3</v>
       </c>
       <c r="E2" t="n">
-        <v>4586.63</v>
+        <v>19980.3934226845</v>
       </c>
       <c r="F2" t="n">
-        <v>812.9535383671</v>
+        <v>2315.48</v>
       </c>
       <c r="G2" t="n">
-        <v>709.5187</v>
+        <v>5732.4878</v>
       </c>
       <c r="H2" t="n">
-        <v>1171.94</v>
+        <v>7196.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3013.88</v>
+        <v>8465.280000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>393.7983342083</v>
+        <v>1804.52390791625</v>
       </c>
       <c r="D3" t="n">
-        <v>244.77</v>
+        <v>879.4400000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>5025.93</v>
+        <v>24345.91</v>
       </c>
       <c r="F3" t="n">
-        <v>841.2</v>
+        <v>2697.48</v>
       </c>
       <c r="G3" t="n">
-        <v>800.6128</v>
+        <v>7464.182046</v>
       </c>
       <c r="H3" t="n">
-        <v>1211.43</v>
+        <v>8416.450000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3342.14</v>
+        <v>9656.32</v>
       </c>
       <c r="C4" t="n">
-        <v>450.7508582906</v>
+        <v>2068.75967757512</v>
       </c>
       <c r="D4" t="n">
-        <v>259.33</v>
+        <v>1064.83</v>
       </c>
       <c r="E4" t="n">
-        <v>5790.03</v>
+        <v>28118.9952895365</v>
       </c>
       <c r="F4" t="n">
-        <v>987.0700000000001</v>
+        <v>2999.28</v>
       </c>
       <c r="G4" t="n">
-        <v>908.51</v>
+        <v>8431.9774516667</v>
       </c>
       <c r="H4" t="n">
-        <v>1539.38</v>
+        <v>10030.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3678.67</v>
+        <v>10729.343484106</v>
       </c>
       <c r="C5" t="n">
-        <v>509.4987889528</v>
+        <v>2316.23444708847</v>
       </c>
       <c r="D5" t="n">
-        <v>274.67</v>
+        <v>1274.44</v>
       </c>
       <c r="E5" t="n">
-        <v>6584.1</v>
+        <v>31668.9471012618</v>
       </c>
       <c r="F5" t="n">
-        <v>1108.91</v>
+        <v>3234.12</v>
       </c>
       <c r="G5" t="n">
-        <v>1116.94</v>
+        <v>9545.814601059299</v>
       </c>
       <c r="H5" t="n">
-        <v>1788.5</v>
+        <v>11393.7890160964</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4071.35</v>
+        <v>11295.408051163</v>
       </c>
       <c r="C6" t="n">
-        <v>583.92</v>
+        <v>2565.45025420195</v>
       </c>
       <c r="D6" t="n">
-        <v>301.61</v>
+        <v>1412.2133560979</v>
       </c>
       <c r="E6" t="n">
-        <v>7590.29</v>
+        <v>35312.3965689882</v>
       </c>
       <c r="F6" t="n">
-        <v>1261.93</v>
+        <v>3558.3104491006</v>
       </c>
       <c r="G6" t="n">
-        <v>1293.57995</v>
+        <v>10579.2336015907</v>
       </c>
       <c r="H6" t="n">
-        <v>2225.35</v>
+        <v>13437.7549162345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4520.98</v>
+        <v>11992.6484955143</v>
       </c>
       <c r="C7" t="n">
-        <v>662.3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>315.83</v>
-      </c>
+        <v>2962.17913486019</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>8659.91</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1126.36</v>
-      </c>
+        <v>40974.6391008671</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>1552.53</v>
+        <v>12475.2823424089</v>
       </c>
       <c r="H7" t="n">
-        <v>2586.41</v>
+        <v>16506.7082629439</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4853.56</v>
+        <v>13337.897202</v>
       </c>
       <c r="C8" t="n">
-        <v>748.839136353</v>
-      </c>
-      <c r="D8" t="n">
-        <v>361.89</v>
-      </c>
+        <v>3328.60865849058</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>9843.340679532699</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1248.3</v>
-      </c>
+        <v>46344.884073896</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>1778.856042</v>
+        <v>13910.3109672869</v>
       </c>
       <c r="H8" t="n">
-        <v>3210.92</v>
+        <v>19096.675904609</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5098.66</v>
+        <v>15133.59661824</v>
       </c>
       <c r="C9" t="n">
-        <v>875.9596409058</v>
-      </c>
-      <c r="D9" t="n">
-        <v>358.11</v>
-      </c>
+        <v>3756.72459656585</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>11573.97</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1516.29</v>
-      </c>
+        <v>52598.2767489782</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>2581.584485</v>
+        <v>15205.8744537348</v>
       </c>
       <c r="H9" t="n">
-        <v>3893.72</v>
+        <v>22258.8056770033</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5875.86</v>
+        <v>16911.99</v>
       </c>
       <c r="C10" t="n">
-        <v>1094.5166427567</v>
-      </c>
-      <c r="D10" t="n">
-        <v>455.19</v>
-      </c>
+        <v>4206.73719757327</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>14535.4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1861.76</v>
-      </c>
+        <v>59121.91</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>3593.941014</v>
+        <v>16399.13</v>
       </c>
       <c r="H10" t="n">
-        <v>5065.6</v>
+        <v>25810.78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6571.16</v>
+        <v>18673.87</v>
       </c>
       <c r="C11" t="n">
-        <v>1314.49</v>
-      </c>
-      <c r="D11" t="n">
-        <v>561.99</v>
-      </c>
+        <v>4669.34</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>17541.92</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2176.63</v>
-      </c>
+        <v>65841.39</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>4816.2599103333</v>
+        <v>18016.95</v>
       </c>
       <c r="H11" t="n">
-        <v>6154.49</v>
+        <v>29150.57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7051.29</v>
+        <v>19959.43</v>
       </c>
       <c r="C12" t="n">
-        <v>1490.06</v>
-      </c>
-      <c r="D12" t="n">
-        <v>666.3</v>
-      </c>
+        <v>5112.34</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>19980.3934226845</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2315.48</v>
-      </c>
+        <v>72175</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>5732.4878</v>
+        <v>21941.9</v>
       </c>
       <c r="H12" t="n">
-        <v>7196.61</v>
+        <v>30273.67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8465.280000000001</v>
+        <v>21205.67</v>
       </c>
       <c r="C13" t="n">
-        <v>1804.52390791625</v>
-      </c>
-      <c r="D13" t="n">
-        <v>879.4400000000001</v>
-      </c>
+        <v>5439.97</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>24345.91</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2697.48</v>
-      </c>
+        <v>76844.99000000001</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>7464.182046</v>
+        <v>20676.06</v>
       </c>
       <c r="H13" t="n">
-        <v>8416.450000000001</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9656.32</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2068.75967757512</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1064.83</v>
-      </c>
-      <c r="E14" t="n">
-        <v>28118.9952895365</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2999.28</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8431.9774516667</v>
-      </c>
-      <c r="H14" t="n">
-        <v>10030.7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10729.343484106</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2316.23444708847</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1274.44</v>
-      </c>
-      <c r="E15" t="n">
-        <v>31668.9471012618</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3234.12</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9545.814601059299</v>
-      </c>
-      <c r="H15" t="n">
-        <v>11393.7890160964</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>11295.408051163</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2565.45025420195</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1412.2133560979</v>
-      </c>
-      <c r="E16" t="n">
-        <v>35312.3965689882</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3558.3104491006</v>
-      </c>
-      <c r="G16" t="n">
-        <v>10579.2336015907</v>
-      </c>
-      <c r="H16" t="n">
-        <v>13437.7549162345</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>11992.6484955143</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2962.17913486019</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>40974.6391008671</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>12475.2823424089</v>
-      </c>
-      <c r="H17" t="n">
-        <v>16506.7082629439</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>13337.897202</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3328.60865849058</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>46344.884073896</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>13910.3109672869</v>
-      </c>
-      <c r="H18" t="n">
-        <v>19096.675904609</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>15133.59661824</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3756.72459656585</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>52598.2767489782</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>15205.8744537348</v>
-      </c>
-      <c r="H19" t="n">
-        <v>22258.8056770033</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>16911.99</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4206.73719757327</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>59121.91</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>16399.13</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25810.78</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>18673.87</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4669.34</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>65841.39</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>18016.95</v>
-      </c>
-      <c r="H21" t="n">
-        <v>29150.57</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>19959.43</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5112.34</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>72175</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>21941.9</v>
-      </c>
-      <c r="H22" t="n">
-        <v>30273.67</v>
+        <v>34963.26</v>
       </c>
     </row>
   </sheetData>
